--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="141">
   <si>
     <t>Результат выполнения команды UAC : успешно</t>
   </si>
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>Sensor_Old_HighLimit</t>
-  </si>
-  <si>
-    <t>4102</t>
   </si>
   <si>
     <t>Sensor_Old_LowLimit</t>
@@ -777,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,6 +783,7 @@
     <col min="1" max="1" width="61.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2478,8 +2476,8 @@
       <c r="C85" t="s">
         <v>94</v>
       </c>
-      <c r="D85" t="s">
-        <v>139</v>
+      <c r="D85">
+        <v>4102</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -2490,16 +2488,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" t="s">
         <v>140</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" t="s">
-        <v>141</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
